--- a/results/density.xlsx
+++ b/results/density.xlsx
@@ -480,40 +480,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1010.921875997914</v>
+        <v>1096.88788999536</v>
       </c>
       <c r="C2" t="n">
-        <v>326.3664931671769</v>
+        <v>361.0414823954374</v>
       </c>
       <c r="D2" t="n">
-        <v>826.2475877423112</v>
+        <v>392.5892261717265</v>
       </c>
       <c r="E2" t="n">
-        <v>1900.603186242785</v>
+        <v>561.6845381981831</v>
       </c>
       <c r="F2" t="n">
-        <v>260.0082397729293</v>
+        <v>228.8643512390926</v>
       </c>
       <c r="G2" t="n">
-        <v>316.7455925371124</v>
+        <v>895.8556030186672</v>
       </c>
       <c r="H2" t="n">
-        <v>1504.491375137608</v>
+        <v>582.5511277601581</v>
       </c>
       <c r="I2" t="n">
-        <v>1436.809290221981</v>
+        <v>222.8132615661076</v>
       </c>
       <c r="J2" t="n">
-        <v>418.1014091916169</v>
+        <v>125.4728590780619</v>
       </c>
       <c r="K2" t="n">
-        <v>1618.004618576614</v>
+        <v>1988.430739888012</v>
       </c>
       <c r="L2" t="n">
-        <v>961.8299668588048</v>
+        <v>645.6191079310807</v>
       </c>
       <c r="M2" t="n">
-        <v>620.1148502172729</v>
+        <v>562.5771507918562</v>
       </c>
     </row>
     <row r="3">
@@ -521,40 +521,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>933.1465812980589</v>
+        <v>1028.973405622186</v>
       </c>
       <c r="C3" t="n">
-        <v>379.8933776157592</v>
+        <v>323.357287301743</v>
       </c>
       <c r="D3" t="n">
-        <v>826.9484055072737</v>
+        <v>427.7232362137641</v>
       </c>
       <c r="E3" t="n">
-        <v>1895.637379975484</v>
+        <v>580.3133953683941</v>
       </c>
       <c r="F3" t="n">
-        <v>260.9427324003521</v>
+        <v>219.0542813457408</v>
       </c>
       <c r="G3" t="n">
-        <v>316.7983667242236</v>
+        <v>926.5967221277484</v>
       </c>
       <c r="H3" t="n">
-        <v>1514.229401888528</v>
+        <v>524.2094879663591</v>
       </c>
       <c r="I3" t="n">
-        <v>1400.972687189222</v>
+        <v>471.7645104397594</v>
       </c>
       <c r="J3" t="n">
-        <v>418.1114960933173</v>
+        <v>144.9314360855427</v>
       </c>
       <c r="K3" t="n">
-        <v>1793.069041039937</v>
+        <v>2007.374570366341</v>
       </c>
       <c r="L3" t="n">
-        <v>973.9749469732154</v>
+        <v>665.4298332837579</v>
       </c>
       <c r="M3" t="n">
-        <v>634.2165389595061</v>
+        <v>548.6923616165386</v>
       </c>
     </row>
     <row r="4">
@@ -562,40 +562,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>762.6805106052338</v>
+        <v>1150.555963599146</v>
       </c>
       <c r="C4" t="n">
-        <v>226.1442055562633</v>
+        <v>337.2453222167376</v>
       </c>
       <c r="D4" t="n">
-        <v>657.9790052456574</v>
+        <v>401.5663532451209</v>
       </c>
       <c r="E4" t="n">
-        <v>1905.728107890691</v>
+        <v>577.4632617955607</v>
       </c>
       <c r="F4" t="n">
-        <v>183.3782931561205</v>
+        <v>211.1365159349164</v>
       </c>
       <c r="G4" t="n">
-        <v>316.8353146875219</v>
+        <v>837.3465060067193</v>
       </c>
       <c r="H4" t="n">
-        <v>1440.144025956475</v>
+        <v>500.2162260228639</v>
       </c>
       <c r="I4" t="n">
-        <v>1352.927425735388</v>
+        <v>197.9608937667194</v>
       </c>
       <c r="J4" t="n">
-        <v>413.2655606527173</v>
+        <v>131.6854942950682</v>
       </c>
       <c r="K4" t="n">
-        <v>1310.857470773374</v>
+        <v>1819.151002587492</v>
       </c>
       <c r="L4" t="n">
-        <v>856.9939920259442</v>
+        <v>616.4327539470345</v>
       </c>
       <c r="M4" t="n">
-        <v>603.7610927409636</v>
+        <v>526.4264656328892</v>
       </c>
     </row>
     <row r="5">
@@ -603,40 +603,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>533.5122052320193</v>
+        <v>1150.817180313665</v>
       </c>
       <c r="C5" t="n">
-        <v>250.0377877116601</v>
+        <v>350.7045840966553</v>
       </c>
       <c r="D5" t="n">
-        <v>456.0287800526198</v>
+        <v>390.3961588047499</v>
       </c>
       <c r="E5" t="n">
-        <v>1899.199965074319</v>
+        <v>569.0137904172705</v>
       </c>
       <c r="F5" t="n">
-        <v>95.5278511632502</v>
+        <v>224.7802634121032</v>
       </c>
       <c r="G5" t="n">
-        <v>316.9406950185293</v>
+        <v>853.3083708556462</v>
       </c>
       <c r="H5" t="n">
-        <v>1321.8893785742</v>
+        <v>553.4357707418098</v>
       </c>
       <c r="I5" t="n">
-        <v>1441.83769474127</v>
+        <v>172.6427963513552</v>
       </c>
       <c r="J5" t="n">
-        <v>412.3833122299584</v>
+        <v>124.439608745823</v>
       </c>
       <c r="K5" t="n">
-        <v>964.5746955404686</v>
+        <v>1861.147949235789</v>
       </c>
       <c r="L5" t="n">
-        <v>769.1932365338293</v>
+        <v>625.0686472974867</v>
       </c>
       <c r="M5" t="n">
-        <v>603.8601156862509</v>
+        <v>538.574924034908</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514.3424729671239</v>
+        <v>982.7385297379668</v>
       </c>
       <c r="C6" t="n">
-        <v>132.2932247365208</v>
+        <v>313.5782192271587</v>
       </c>
       <c r="D6" t="n">
-        <v>396.0907297163081</v>
+        <v>441.2229491116929</v>
       </c>
       <c r="E6" t="n">
-        <v>1872.946065156215</v>
+        <v>581.3200690198606</v>
       </c>
       <c r="F6" t="n">
-        <v>117.2689893216968</v>
+        <v>214.8494954023766</v>
       </c>
       <c r="G6" t="n">
-        <v>316.8064715777471</v>
+        <v>852.1199002983506</v>
       </c>
       <c r="H6" t="n">
-        <v>1373.191886296411</v>
+        <v>436.4352255642895</v>
       </c>
       <c r="I6" t="n">
-        <v>1261.278965790666</v>
+        <v>485.9133182628333</v>
       </c>
       <c r="J6" t="n">
-        <v>412.558628700009</v>
+        <v>154.9964146096503</v>
       </c>
       <c r="K6" t="n">
-        <v>1034.819585984079</v>
+        <v>2036.77299833476</v>
       </c>
       <c r="L6" t="n">
-        <v>743.1597020246776</v>
+        <v>649.994711956894</v>
       </c>
       <c r="M6" t="n">
-        <v>601.4479028795453</v>
+        <v>552.077893012604</v>
       </c>
     </row>
     <row r="7">
@@ -685,40 +685,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798.7696438109359</v>
+        <v>1037.206109870726</v>
       </c>
       <c r="C7" t="n">
-        <v>289.9703019196635</v>
+        <v>361.0414823954374</v>
       </c>
       <c r="D7" t="n">
-        <v>748.8398509504684</v>
+        <v>394.1665314933337</v>
       </c>
       <c r="E7" t="n">
-        <v>1911.097907282056</v>
+        <v>547.8909995844242</v>
       </c>
       <c r="F7" t="n">
-        <v>195.1901627673743</v>
+        <v>228.6260228722169</v>
       </c>
       <c r="G7" t="n">
-        <v>316.9001664421113</v>
+        <v>919.9358682595293</v>
       </c>
       <c r="H7" t="n">
-        <v>1439.11508442462</v>
+        <v>563.9726490840443</v>
       </c>
       <c r="I7" t="n">
-        <v>1446.470103270008</v>
+        <v>235.335807477604</v>
       </c>
       <c r="J7" t="n">
-        <v>414.4282128781081</v>
+        <v>133.6340717106191</v>
       </c>
       <c r="K7" t="n">
-        <v>1445.398487379144</v>
+        <v>2029.086787856606</v>
       </c>
       <c r="L7" t="n">
-        <v>900.6179921124491</v>
+        <v>645.089633060454</v>
       </c>
       <c r="M7" t="n">
-        <v>613.4442660769232</v>
+        <v>568.3645280329284</v>
       </c>
     </row>
     <row r="8">
@@ -726,40 +726,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755.3381768681786</v>
+        <v>1129.321781658756</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2741355052893</v>
+        <v>340.3575601169692</v>
       </c>
       <c r="D8" t="n">
-        <v>764.2850044572681</v>
+        <v>399.7081830792408</v>
       </c>
       <c r="E8" t="n">
-        <v>1916.156645756054</v>
+        <v>565.0532789853129</v>
       </c>
       <c r="F8" t="n">
-        <v>184.2244381404564</v>
+        <v>224.761184044</v>
       </c>
       <c r="G8" t="n">
-        <v>317.0759482626034</v>
+        <v>806.9083817406868</v>
       </c>
       <c r="H8" t="n">
-        <v>1399.278053233141</v>
+        <v>427.4119770915778</v>
       </c>
       <c r="I8" t="n">
-        <v>1526.322584459295</v>
+        <v>89.2147864268785</v>
       </c>
       <c r="J8" t="n">
-        <v>412.5101762396836</v>
+        <v>137.399584072369</v>
       </c>
       <c r="K8" t="n">
-        <v>1401.196744809224</v>
+        <v>1774.357816841573</v>
       </c>
       <c r="L8" t="n">
-        <v>904.1661907731192</v>
+        <v>589.4494534057364</v>
       </c>
       <c r="M8" t="n">
-        <v>609.2086191733389</v>
+        <v>522.3067983381078</v>
       </c>
     </row>
     <row r="9">
@@ -767,40 +767,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>572.1772771892772</v>
+        <v>1037.862012700479</v>
       </c>
       <c r="C9" t="n">
-        <v>233.4316710292204</v>
+        <v>353.7455975265286</v>
       </c>
       <c r="D9" t="n">
-        <v>486.0908322210802</v>
+        <v>405.5363181851225</v>
       </c>
       <c r="E9" t="n">
-        <v>1893.679598962312</v>
+        <v>557.8579615173819</v>
       </c>
       <c r="F9" t="n">
-        <v>109.9748796785465</v>
+        <v>232.3176651601724</v>
       </c>
       <c r="G9" t="n">
-        <v>316.9115847631306</v>
+        <v>915.2731947168893</v>
       </c>
       <c r="H9" t="n">
-        <v>1346.02776091465</v>
+        <v>536.633103821024</v>
       </c>
       <c r="I9" t="n">
-        <v>1393.715702170186</v>
+        <v>309.5048904747298</v>
       </c>
       <c r="J9" t="n">
-        <v>412.3833122299584</v>
+        <v>138.1841649168091</v>
       </c>
       <c r="K9" t="n">
-        <v>999.8743186340906</v>
+        <v>2010.133857191865</v>
       </c>
       <c r="L9" t="n">
-        <v>776.4266937792452</v>
+        <v>649.7048766211002</v>
       </c>
       <c r="M9" t="n">
-        <v>597.4361948036093</v>
+        <v>556.9751959207948</v>
       </c>
     </row>
     <row r="10">
@@ -808,40 +808,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973.629036316756</v>
+        <v>1052.163369292371</v>
       </c>
       <c r="C10" t="n">
-        <v>288.9077172744059</v>
+        <v>361.0414823954374</v>
       </c>
       <c r="D10" t="n">
-        <v>809.3069357980073</v>
+        <v>391.499926964084</v>
       </c>
       <c r="E10" t="n">
-        <v>1919.88000081484</v>
+        <v>556.741034281673</v>
       </c>
       <c r="F10" t="n">
-        <v>225.5733756813049</v>
+        <v>222.7557304633718</v>
       </c>
       <c r="G10" t="n">
-        <v>316.7912830563912</v>
+        <v>949.3546337657631</v>
       </c>
       <c r="H10" t="n">
-        <v>1473.10193668745</v>
+        <v>659.4893776620893</v>
       </c>
       <c r="I10" t="n">
-        <v>1429.972844120486</v>
+        <v>275.8969239561232</v>
       </c>
       <c r="J10" t="n">
-        <v>413.2027685047118</v>
+        <v>120.1075063686932</v>
       </c>
       <c r="K10" t="n">
-        <v>1375.002065043606</v>
+        <v>2138.728867148431</v>
       </c>
       <c r="L10" t="n">
-        <v>922.5367963297961</v>
+        <v>672.7778852298036</v>
       </c>
       <c r="M10" t="n">
-        <v>604.52512307873</v>
+        <v>598.5962578750856</v>
       </c>
     </row>
     <row r="11">
@@ -849,40 +849,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619.9341592509674</v>
+        <v>1064.273235538227</v>
       </c>
       <c r="C11" t="n">
-        <v>193.2819157234238</v>
+        <v>361.0414823954374</v>
       </c>
       <c r="D11" t="n">
-        <v>501.1300105556381</v>
+        <v>397.9561041964315</v>
       </c>
       <c r="E11" t="n">
-        <v>1909.174320908736</v>
+        <v>564.2037214310723</v>
       </c>
       <c r="F11" t="n">
-        <v>124.0564529804184</v>
+        <v>216.2339129659646</v>
       </c>
       <c r="G11" t="n">
-        <v>316.815252912931</v>
+        <v>950.5016019577538</v>
       </c>
       <c r="H11" t="n">
-        <v>1377.705647697757</v>
+        <v>662.480891593144</v>
       </c>
       <c r="I11" t="n">
-        <v>1333.968014634868</v>
+        <v>355.497956481363</v>
       </c>
       <c r="J11" t="n">
-        <v>412.3833122299584</v>
+        <v>126.1920150974615</v>
       </c>
       <c r="K11" t="n">
-        <v>1047.65112458876</v>
+        <v>2080.643893975945</v>
       </c>
       <c r="L11" t="n">
-        <v>783.6100211483458</v>
+        <v>677.9024815632799</v>
       </c>
       <c r="M11" t="n">
-        <v>599.8375504378052</v>
+        <v>577.8003494464236</v>
       </c>
     </row>
     <row r="12">
@@ -890,40 +890,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737.3284943132417</v>
+        <v>1034.671707954878</v>
       </c>
       <c r="C12" t="n">
-        <v>378.4274892544984</v>
+        <v>345.5287238106026</v>
       </c>
       <c r="D12" t="n">
-        <v>780.6877802319553</v>
+        <v>415.2042321361839</v>
       </c>
       <c r="E12" t="n">
-        <v>1963.797638322598</v>
+        <v>570.30424166207</v>
       </c>
       <c r="F12" t="n">
-        <v>179.0917606518587</v>
+        <v>231.805555616856</v>
       </c>
       <c r="G12" t="n">
-        <v>316.449220320255</v>
+        <v>924.2946507286409</v>
       </c>
       <c r="H12" t="n">
-        <v>1397.883104961413</v>
+        <v>523.0364601496422</v>
       </c>
       <c r="I12" t="n">
-        <v>1566.346445235453</v>
+        <v>367.3668918449111</v>
       </c>
       <c r="J12" t="n">
-        <v>413.8813226980868</v>
+        <v>136.0223880582257</v>
       </c>
       <c r="K12" t="n">
-        <v>1521.766148698939</v>
+        <v>2039.533112449957</v>
       </c>
       <c r="L12" t="n">
-        <v>925.5659404688298</v>
+        <v>658.7767964411968</v>
       </c>
       <c r="M12" t="n">
-        <v>633.5889340444648</v>
+        <v>561.9891107141653</v>
       </c>
     </row>
     <row r="13">
@@ -931,40 +931,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953.4035962520168</v>
+        <v>1000.864239669662</v>
       </c>
       <c r="C13" t="n">
-        <v>253.0531896320471</v>
+        <v>359.6983776099375</v>
       </c>
       <c r="D13" t="n">
-        <v>757.6940220960864</v>
+        <v>412.4568117469198</v>
       </c>
       <c r="E13" t="n">
-        <v>1899.104137353764</v>
+        <v>561.4068446309932</v>
       </c>
       <c r="F13" t="n">
-        <v>229.727886541781</v>
+        <v>232.1968808677899</v>
       </c>
       <c r="G13" t="n">
-        <v>316.7760557558319</v>
+        <v>944.5005805452383</v>
       </c>
       <c r="H13" t="n">
-        <v>1458.138472593252</v>
+        <v>546.0656883302775</v>
       </c>
       <c r="I13" t="n">
-        <v>1466.301201923544</v>
+        <v>370.0419502405155</v>
       </c>
       <c r="J13" t="n">
-        <v>415.7531905403898</v>
+        <v>136.0834006716724</v>
       </c>
       <c r="K13" t="n">
-        <v>1386.496289890504</v>
+        <v>2116.047479805248</v>
       </c>
       <c r="L13" t="n">
-        <v>913.6448042579216</v>
+        <v>667.9362254118254</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3488103042561</v>
+        <v>580.4513140133766</v>
       </c>
     </row>
     <row r="14">
@@ -972,40 +972,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>743.9266465182633</v>
+        <v>1004.089842108013</v>
       </c>
       <c r="C14" t="n">
-        <v>219.9962023450268</v>
+        <v>351.0844220857637</v>
       </c>
       <c r="D14" t="n">
-        <v>597.0811782412658</v>
+        <v>405.8477668945257</v>
       </c>
       <c r="E14" t="n">
-        <v>1893.74578213622</v>
+        <v>550.4193347093304</v>
       </c>
       <c r="F14" t="n">
-        <v>156.2157878833046</v>
+        <v>231.4505449355639</v>
       </c>
       <c r="G14" t="n">
-        <v>317.0246821556269</v>
+        <v>928.0469609260123</v>
       </c>
       <c r="H14" t="n">
-        <v>1402.795413163138</v>
+        <v>523.4638586773963</v>
       </c>
       <c r="I14" t="n">
-        <v>1363.248553824762</v>
+        <v>329.0057454315848</v>
       </c>
       <c r="J14" t="n">
-        <v>412.3833122299584</v>
+        <v>143.079375798608</v>
       </c>
       <c r="K14" t="n">
-        <v>1083.109311536537</v>
+        <v>2028.128648532673</v>
       </c>
       <c r="L14" t="n">
-        <v>818.9526870034102</v>
+        <v>649.4616500099471</v>
       </c>
       <c r="M14" t="n">
-        <v>589.9288618915009</v>
+        <v>558.9676415913515</v>
       </c>
     </row>
     <row r="15">
@@ -1013,40 +1013,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>923.5919370915092</v>
+        <v>1114.599886149322</v>
       </c>
       <c r="C15" t="n">
-        <v>377.5358778085036</v>
+        <v>314.6615507462685</v>
       </c>
       <c r="D15" t="n">
-        <v>842.1213807113758</v>
+        <v>413.8618339939471</v>
       </c>
       <c r="E15" t="n">
-        <v>1931.435720860827</v>
+        <v>577.109509283981</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0270261423198</v>
+        <v>210.0953029395666</v>
       </c>
       <c r="G15" t="n">
-        <v>316.9839769183931</v>
+        <v>793.0720998271122</v>
       </c>
       <c r="H15" t="n">
-        <v>1418.77278969345</v>
+        <v>423.2631883180125</v>
       </c>
       <c r="I15" t="n">
-        <v>1628.46859201634</v>
+        <v>255.6060763015451</v>
       </c>
       <c r="J15" t="n">
-        <v>415.2637668310986</v>
+        <v>139.476356916964</v>
       </c>
       <c r="K15" t="n">
-        <v>1448.665316419576</v>
+        <v>1816.30940043942</v>
       </c>
       <c r="L15" t="n">
-        <v>952.4866384493392</v>
+        <v>605.8055204916138</v>
       </c>
       <c r="M15" t="n">
-        <v>619.0078105480018</v>
+        <v>517.6551395385516</v>
       </c>
     </row>
     <row r="16">
@@ -1054,40 +1054,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>846.270617600181</v>
+        <v>1057.467123391441</v>
       </c>
       <c r="C16" t="n">
-        <v>317.2733387170247</v>
+        <v>330.2571460184982</v>
       </c>
       <c r="D16" t="n">
-        <v>772.2489774434175</v>
+        <v>421.4644451270374</v>
       </c>
       <c r="E16" t="n">
-        <v>1946.006084478334</v>
+        <v>581.3924396311212</v>
       </c>
       <c r="F16" t="n">
-        <v>212.1250581543642</v>
+        <v>200.7423450614215</v>
       </c>
       <c r="G16" t="n">
-        <v>316.8909197564859</v>
+        <v>887.5102494928717</v>
       </c>
       <c r="H16" t="n">
-        <v>1439.403394875958</v>
+        <v>544.2225214073367</v>
       </c>
       <c r="I16" t="n">
-        <v>1553.903594895871</v>
+        <v>437.0181157715245</v>
       </c>
       <c r="J16" t="n">
-        <v>417.4997670851079</v>
+        <v>141.5392726595219</v>
       </c>
       <c r="K16" t="n">
-        <v>1562.673416965159</v>
+        <v>1991.739347056974</v>
       </c>
       <c r="L16" t="n">
-        <v>938.4295169971904</v>
+        <v>659.3353005617748</v>
       </c>
       <c r="M16" t="n">
-        <v>636.1179646264846</v>
+        <v>547.5114886610651</v>
       </c>
     </row>
   </sheetData>

--- a/results/density.xlsx
+++ b/results/density.xlsx
@@ -480,40 +480,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1096.88788999536</v>
+        <v>921.6056452617327</v>
       </c>
       <c r="C2" t="n">
-        <v>361.0414823954374</v>
+        <v>328.1843057163007</v>
       </c>
       <c r="D2" t="n">
-        <v>392.5892261717265</v>
+        <v>437.1701090329502</v>
       </c>
       <c r="E2" t="n">
-        <v>561.6845381981831</v>
+        <v>617.0699998829604</v>
       </c>
       <c r="F2" t="n">
-        <v>228.8643512390926</v>
+        <v>222.9966067200875</v>
       </c>
       <c r="G2" t="n">
-        <v>895.8556030186672</v>
+        <v>994.0086892572895</v>
       </c>
       <c r="H2" t="n">
-        <v>582.5511277601581</v>
+        <v>482.865754847433</v>
       </c>
       <c r="I2" t="n">
-        <v>222.8132615661076</v>
+        <v>476.7451405876508</v>
       </c>
       <c r="J2" t="n">
-        <v>125.4728590780619</v>
+        <v>144.3514477623118</v>
       </c>
       <c r="K2" t="n">
-        <v>1988.430739888012</v>
+        <v>2033.033097482496</v>
       </c>
       <c r="L2" t="n">
-        <v>645.6191079310807</v>
+        <v>665.8030796551213</v>
       </c>
       <c r="M2" t="n">
-        <v>562.5771507918562</v>
+        <v>552.6003706957902</v>
       </c>
     </row>
     <row r="3">
@@ -521,40 +521,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1028.973405622186</v>
+        <v>969.6974983422155</v>
       </c>
       <c r="C3" t="n">
-        <v>323.357287301743</v>
+        <v>341.7470385324121</v>
       </c>
       <c r="D3" t="n">
-        <v>427.7232362137641</v>
+        <v>417.949235557314</v>
       </c>
       <c r="E3" t="n">
-        <v>580.3133953683941</v>
+        <v>604.9524943211563</v>
       </c>
       <c r="F3" t="n">
-        <v>219.0542813457408</v>
+        <v>230.6318782148851</v>
       </c>
       <c r="G3" t="n">
-        <v>926.5967221277484</v>
+        <v>946.5229343744896</v>
       </c>
       <c r="H3" t="n">
-        <v>524.2094879663591</v>
+        <v>449.5043276918269</v>
       </c>
       <c r="I3" t="n">
-        <v>471.7645104397594</v>
+        <v>276.725218636472</v>
       </c>
       <c r="J3" t="n">
-        <v>144.9314360855427</v>
+        <v>139.3538270533314</v>
       </c>
       <c r="K3" t="n">
-        <v>2007.374570366341</v>
+        <v>1929.937775024705</v>
       </c>
       <c r="L3" t="n">
-        <v>665.4298332837579</v>
+        <v>630.7022227748809</v>
       </c>
       <c r="M3" t="n">
-        <v>548.6923616165386</v>
+        <v>536.6260277329523</v>
       </c>
     </row>
     <row r="4">
@@ -562,40 +562,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1150.555963599146</v>
+        <v>989.7204916819495</v>
       </c>
       <c r="C4" t="n">
-        <v>337.2453222167376</v>
+        <v>367.2006222179346</v>
       </c>
       <c r="D4" t="n">
-        <v>401.5663532451209</v>
+        <v>402.5112458171826</v>
       </c>
       <c r="E4" t="n">
-        <v>577.4632617955607</v>
+        <v>597.7439797095941</v>
       </c>
       <c r="F4" t="n">
-        <v>211.1365159349164</v>
+        <v>225.1584504875511</v>
       </c>
       <c r="G4" t="n">
-        <v>837.3465060067193</v>
+        <v>942.667642001242</v>
       </c>
       <c r="H4" t="n">
-        <v>500.2162260228639</v>
+        <v>513.3145257156639</v>
       </c>
       <c r="I4" t="n">
-        <v>197.9608937667194</v>
+        <v>199.2548707268124</v>
       </c>
       <c r="J4" t="n">
-        <v>131.6854942950682</v>
+        <v>126.7956638279113</v>
       </c>
       <c r="K4" t="n">
-        <v>1819.151002587492</v>
+        <v>1986.963817414659</v>
       </c>
       <c r="L4" t="n">
-        <v>616.4327539470345</v>
+        <v>635.13313096005</v>
       </c>
       <c r="M4" t="n">
-        <v>526.4264656328892</v>
+        <v>558.4075020858064</v>
       </c>
     </row>
     <row r="5">
@@ -603,40 +603,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1150.817180313665</v>
+        <v>941.8919948293689</v>
       </c>
       <c r="C5" t="n">
-        <v>350.7045840966553</v>
+        <v>350.8524739684364</v>
       </c>
       <c r="D5" t="n">
-        <v>390.3961588047499</v>
+        <v>423.1467744244686</v>
       </c>
       <c r="E5" t="n">
-        <v>569.0137904172705</v>
+        <v>611.886429196225</v>
       </c>
       <c r="F5" t="n">
-        <v>224.7802634121032</v>
+        <v>215.7832862455109</v>
       </c>
       <c r="G5" t="n">
-        <v>853.3083708556462</v>
+        <v>1008.542681092874</v>
       </c>
       <c r="H5" t="n">
-        <v>553.4357707418098</v>
+        <v>538.5290794826909</v>
       </c>
       <c r="I5" t="n">
-        <v>172.6427963513552</v>
+        <v>418.3534722843905</v>
       </c>
       <c r="J5" t="n">
-        <v>124.439608745823</v>
+        <v>132.160699296858</v>
       </c>
       <c r="K5" t="n">
-        <v>1861.147949235789</v>
+        <v>2081.784450672963</v>
       </c>
       <c r="L5" t="n">
-        <v>625.0686472974867</v>
+        <v>672.2931341493787</v>
       </c>
       <c r="M5" t="n">
-        <v>538.574924034908</v>
+        <v>569.9885490118763</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>982.7385297379668</v>
+        <v>962.8934535292226</v>
       </c>
       <c r="C6" t="n">
-        <v>313.5782192271587</v>
+        <v>315.5804001397536</v>
       </c>
       <c r="D6" t="n">
-        <v>441.2229491116929</v>
+        <v>440.2731285064546</v>
       </c>
       <c r="E6" t="n">
-        <v>581.3200690198606</v>
+        <v>627.2781917469886</v>
       </c>
       <c r="F6" t="n">
-        <v>214.8494954023766</v>
+        <v>199.620144230465</v>
       </c>
       <c r="G6" t="n">
-        <v>852.1199002983506</v>
+        <v>831.6393946126612</v>
       </c>
       <c r="H6" t="n">
-        <v>436.4352255642895</v>
+        <v>384.1894928145004</v>
       </c>
       <c r="I6" t="n">
-        <v>485.9133182628333</v>
+        <v>395.6433250061452</v>
       </c>
       <c r="J6" t="n">
-        <v>154.9964146096503</v>
+        <v>148.7010208443801</v>
       </c>
       <c r="K6" t="n">
-        <v>2036.77299833476</v>
+        <v>1919.049953508741</v>
       </c>
       <c r="L6" t="n">
-        <v>649.994711956894</v>
+        <v>622.4868504939312</v>
       </c>
       <c r="M6" t="n">
-        <v>552.077893012604</v>
+        <v>524.8964520399178</v>
       </c>
     </row>
     <row r="7">
@@ -685,40 +685,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1037.206109870726</v>
+        <v>982.7021698149496</v>
       </c>
       <c r="C7" t="n">
-        <v>361.0414823954374</v>
+        <v>370.4611269220839</v>
       </c>
       <c r="D7" t="n">
-        <v>394.1665314933337</v>
+        <v>397.8680495073218</v>
       </c>
       <c r="E7" t="n">
-        <v>547.8909995844242</v>
+        <v>605.3769995411581</v>
       </c>
       <c r="F7" t="n">
-        <v>228.6260228722169</v>
+        <v>231.2341652308546</v>
       </c>
       <c r="G7" t="n">
-        <v>919.9358682595293</v>
+        <v>1054.886954074373</v>
       </c>
       <c r="H7" t="n">
-        <v>563.9726490840443</v>
+        <v>703.2538045237867</v>
       </c>
       <c r="I7" t="n">
-        <v>235.335807477604</v>
+        <v>380.0599529692233</v>
       </c>
       <c r="J7" t="n">
-        <v>133.6340717106191</v>
+        <v>105.870827964045</v>
       </c>
       <c r="K7" t="n">
-        <v>2029.086787856606</v>
+        <v>2122.347014908412</v>
       </c>
       <c r="L7" t="n">
-        <v>645.089633060454</v>
+        <v>695.4061065456208</v>
       </c>
       <c r="M7" t="n">
-        <v>568.3645280329284</v>
+        <v>588.0912115273276</v>
       </c>
     </row>
     <row r="8">
@@ -726,40 +726,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1129.321781658756</v>
+        <v>968.0345437665015</v>
       </c>
       <c r="C8" t="n">
-        <v>340.3575601169692</v>
+        <v>370.4611269220839</v>
       </c>
       <c r="D8" t="n">
-        <v>399.7081830792408</v>
+        <v>398.7420731532623</v>
       </c>
       <c r="E8" t="n">
-        <v>565.0532789853129</v>
+        <v>596.1567406216512</v>
       </c>
       <c r="F8" t="n">
-        <v>224.761184044</v>
+        <v>227.3739245947134</v>
       </c>
       <c r="G8" t="n">
-        <v>806.9083817406868</v>
+        <v>1018.10099443436</v>
       </c>
       <c r="H8" t="n">
-        <v>427.4119770915778</v>
+        <v>627.9201589305846</v>
       </c>
       <c r="I8" t="n">
-        <v>89.2147864268785</v>
+        <v>300.1938593282991</v>
       </c>
       <c r="J8" t="n">
-        <v>137.399584072369</v>
+        <v>115.4078152914418</v>
       </c>
       <c r="K8" t="n">
-        <v>1774.357816841573</v>
+        <v>2102.221263249372</v>
       </c>
       <c r="L8" t="n">
-        <v>589.4494534057364</v>
+        <v>672.4612500292271</v>
       </c>
       <c r="M8" t="n">
-        <v>522.3067983381078</v>
+        <v>584.2346290451655</v>
       </c>
     </row>
     <row r="9">
@@ -767,40 +767,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1037.862012700479</v>
+        <v>973.0768520324339</v>
       </c>
       <c r="C9" t="n">
-        <v>353.7455975265286</v>
+        <v>370.4611269220839</v>
       </c>
       <c r="D9" t="n">
-        <v>405.5363181851225</v>
+        <v>408.7868462714632</v>
       </c>
       <c r="E9" t="n">
-        <v>557.8579615173819</v>
+        <v>600.4967825683477</v>
       </c>
       <c r="F9" t="n">
-        <v>232.3176651601724</v>
+        <v>218.46010858646</v>
       </c>
       <c r="G9" t="n">
-        <v>915.2731947168893</v>
+        <v>961.3300164774369</v>
       </c>
       <c r="H9" t="n">
-        <v>536.633103821024</v>
+        <v>512.9928704907456</v>
       </c>
       <c r="I9" t="n">
-        <v>309.5048904747298</v>
+        <v>238.5809984492405</v>
       </c>
       <c r="J9" t="n">
-        <v>138.1841649168091</v>
+        <v>129.683259426691</v>
       </c>
       <c r="K9" t="n">
-        <v>2010.133857191865</v>
+        <v>2009.231422039304</v>
       </c>
       <c r="L9" t="n">
-        <v>649.7048766211002</v>
+        <v>642.3100283264206</v>
       </c>
       <c r="M9" t="n">
-        <v>556.9751959207948</v>
+        <v>560.9508599887899</v>
       </c>
     </row>
     <row r="10">
@@ -808,40 +808,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1052.163369292371</v>
+        <v>1008.906956383019</v>
       </c>
       <c r="C10" t="n">
-        <v>361.0414823954374</v>
+        <v>313.3755316563677</v>
       </c>
       <c r="D10" t="n">
-        <v>391.499926964084</v>
+        <v>435.4499961057253</v>
       </c>
       <c r="E10" t="n">
-        <v>556.741034281673</v>
+        <v>623.2789848850941</v>
       </c>
       <c r="F10" t="n">
-        <v>222.7557304633718</v>
+        <v>201.4219724608869</v>
       </c>
       <c r="G10" t="n">
-        <v>949.3546337657631</v>
+        <v>714.880640147737</v>
       </c>
       <c r="H10" t="n">
-        <v>659.4893776620893</v>
+        <v>298.6003377553869</v>
       </c>
       <c r="I10" t="n">
-        <v>275.8969239561232</v>
+        <v>266.3629851735508</v>
       </c>
       <c r="J10" t="n">
-        <v>120.1075063686932</v>
+        <v>133.6071560966014</v>
       </c>
       <c r="K10" t="n">
-        <v>2138.728867148431</v>
+        <v>1734.545880103534</v>
       </c>
       <c r="L10" t="n">
-        <v>672.7778852298036</v>
+        <v>573.0430440767904</v>
       </c>
       <c r="M10" t="n">
-        <v>598.5962578750856</v>
+        <v>488.6084985286184</v>
       </c>
     </row>
     <row r="11">
@@ -849,40 +849,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1064.273235538227</v>
+        <v>1048.969344362023</v>
       </c>
       <c r="C11" t="n">
-        <v>361.0414823954374</v>
+        <v>338.0265141836198</v>
       </c>
       <c r="D11" t="n">
-        <v>397.9561041964315</v>
+        <v>415.7589398924414</v>
       </c>
       <c r="E11" t="n">
-        <v>564.2037214310723</v>
+        <v>635.7522270482106</v>
       </c>
       <c r="F11" t="n">
-        <v>216.2339129659646</v>
+        <v>203.2069119085179</v>
       </c>
       <c r="G11" t="n">
-        <v>950.5016019577538</v>
+        <v>952.3867144287875</v>
       </c>
       <c r="H11" t="n">
-        <v>662.480891593144</v>
+        <v>550.2863287794415</v>
       </c>
       <c r="I11" t="n">
-        <v>355.497956481363</v>
+        <v>338.7449259794426</v>
       </c>
       <c r="J11" t="n">
-        <v>126.1920150974615</v>
+        <v>116.327002169222</v>
       </c>
       <c r="K11" t="n">
-        <v>2080.643893975945</v>
+        <v>1915.113433477325</v>
       </c>
       <c r="L11" t="n">
-        <v>677.9024815632799</v>
+        <v>651.4572342229033</v>
       </c>
       <c r="M11" t="n">
-        <v>577.8003494464236</v>
+        <v>536.9417334095159</v>
       </c>
     </row>
     <row r="12">
@@ -890,40 +890,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1034.671707954878</v>
+        <v>1010.862515131434</v>
       </c>
       <c r="C12" t="n">
-        <v>345.5287238106026</v>
+        <v>355.7211315466715</v>
       </c>
       <c r="D12" t="n">
-        <v>415.2042321361839</v>
+        <v>411.093141809475</v>
       </c>
       <c r="E12" t="n">
-        <v>570.30424166207</v>
+        <v>619.3390080881602</v>
       </c>
       <c r="F12" t="n">
-        <v>231.805555616856</v>
+        <v>200.502976009331</v>
       </c>
       <c r="G12" t="n">
-        <v>924.2946507286409</v>
+        <v>981.6802843653566</v>
       </c>
       <c r="H12" t="n">
-        <v>523.0364601496422</v>
+        <v>594.7541522377833</v>
       </c>
       <c r="I12" t="n">
-        <v>367.3668918449111</v>
+        <v>353.8455973339505</v>
       </c>
       <c r="J12" t="n">
-        <v>136.0223880582257</v>
+        <v>121.6239672291174</v>
       </c>
       <c r="K12" t="n">
-        <v>2039.533112449957</v>
+        <v>1996.619804606256</v>
       </c>
       <c r="L12" t="n">
-        <v>658.7767964411968</v>
+        <v>664.6042578357535</v>
       </c>
       <c r="M12" t="n">
-        <v>561.9891107141653</v>
+        <v>554.5859914068432</v>
       </c>
     </row>
     <row r="13">
@@ -931,40 +931,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1000.864239669662</v>
+        <v>954.2033216320067</v>
       </c>
       <c r="C13" t="n">
-        <v>359.6983776099375</v>
+        <v>361.771982481716</v>
       </c>
       <c r="D13" t="n">
-        <v>412.4568117469198</v>
+        <v>412.3464563195901</v>
       </c>
       <c r="E13" t="n">
-        <v>561.4068446309932</v>
+        <v>607.3383992833628</v>
       </c>
       <c r="F13" t="n">
-        <v>232.1968808677899</v>
+        <v>221.3769147620247</v>
       </c>
       <c r="G13" t="n">
-        <v>944.5005805452383</v>
+        <v>1036.552180130353</v>
       </c>
       <c r="H13" t="n">
-        <v>546.0656883302775</v>
+        <v>625.0297874328274</v>
       </c>
       <c r="I13" t="n">
-        <v>370.0419502405155</v>
+        <v>439.4518210587744</v>
       </c>
       <c r="J13" t="n">
-        <v>136.0834006716724</v>
+        <v>124.6345859109222</v>
       </c>
       <c r="K13" t="n">
-        <v>2116.047479805248</v>
+        <v>2098.452683021748</v>
       </c>
       <c r="L13" t="n">
-        <v>667.9362254118254</v>
+        <v>688.1158132033326</v>
       </c>
       <c r="M13" t="n">
-        <v>580.4513140133766</v>
+        <v>574.6017456967691</v>
       </c>
     </row>
     <row r="14">
@@ -972,40 +972,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1004.089842108013</v>
+        <v>924.0695819333916</v>
       </c>
       <c r="C14" t="n">
-        <v>351.0844220857637</v>
+        <v>315.6537828821886</v>
       </c>
       <c r="D14" t="n">
-        <v>405.8477668945257</v>
+        <v>441.5312999738821</v>
       </c>
       <c r="E14" t="n">
-        <v>550.4193347093304</v>
+        <v>615.8430489883583</v>
       </c>
       <c r="F14" t="n">
-        <v>231.4505449355639</v>
+        <v>216.9624574793063</v>
       </c>
       <c r="G14" t="n">
-        <v>928.0469609260123</v>
+        <v>864.9612577205505</v>
       </c>
       <c r="H14" t="n">
-        <v>523.4638586773963</v>
+        <v>385.4679540527439</v>
       </c>
       <c r="I14" t="n">
-        <v>329.0057454315848</v>
+        <v>422.3417371698258</v>
       </c>
       <c r="J14" t="n">
-        <v>143.079375798608</v>
+        <v>154.3063511600938</v>
       </c>
       <c r="K14" t="n">
-        <v>2028.128648532673</v>
+        <v>1982.023519245635</v>
       </c>
       <c r="L14" t="n">
-        <v>649.4616500099471</v>
+        <v>632.3160990605977</v>
       </c>
       <c r="M14" t="n">
-        <v>558.9676415913515</v>
+        <v>537.8903661688757</v>
       </c>
     </row>
     <row r="15">
@@ -1013,40 +1013,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1114.599886149322</v>
+        <v>1061.692886335495</v>
       </c>
       <c r="C15" t="n">
-        <v>314.6615507462685</v>
+        <v>352.3086830301486</v>
       </c>
       <c r="D15" t="n">
-        <v>413.8618339939471</v>
+        <v>401.6449420807934</v>
       </c>
       <c r="E15" t="n">
-        <v>577.109509283981</v>
+        <v>616.0791182983858</v>
       </c>
       <c r="F15" t="n">
-        <v>210.0953029395666</v>
+        <v>207.8649535790735</v>
       </c>
       <c r="G15" t="n">
-        <v>793.0720998271122</v>
+        <v>889.4587712644463</v>
       </c>
       <c r="H15" t="n">
-        <v>423.2631883180125</v>
+        <v>497.3840895778641</v>
       </c>
       <c r="I15" t="n">
-        <v>255.6060763015451</v>
+        <v>135.6717997956843</v>
       </c>
       <c r="J15" t="n">
-        <v>139.476356916964</v>
+        <v>120.0644930661978</v>
       </c>
       <c r="K15" t="n">
-        <v>1816.30940043942</v>
+        <v>1837.466368676918</v>
       </c>
       <c r="L15" t="n">
-        <v>605.8055204916138</v>
+        <v>611.9636105705006</v>
       </c>
       <c r="M15" t="n">
-        <v>517.6551395385516</v>
+        <v>531.0400046613008</v>
       </c>
     </row>
     <row r="16">
@@ -1054,40 +1054,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1057.467123391441</v>
+        <v>941.9145076397579</v>
       </c>
       <c r="C16" t="n">
-        <v>330.2571460184982</v>
+        <v>370.4611269220839</v>
       </c>
       <c r="D16" t="n">
-        <v>421.4644451270374</v>
+        <v>415.1520946327489</v>
       </c>
       <c r="E16" t="n">
-        <v>581.3924396311212</v>
+        <v>605.999795857352</v>
       </c>
       <c r="F16" t="n">
-        <v>200.7423450614215</v>
+        <v>231.0422219267925</v>
       </c>
       <c r="G16" t="n">
-        <v>887.5102494928717</v>
+        <v>1030.241693075425</v>
       </c>
       <c r="H16" t="n">
-        <v>544.2225214073367</v>
+        <v>576.6230074144685</v>
       </c>
       <c r="I16" t="n">
-        <v>437.0181157715245</v>
+        <v>370.5812433799571</v>
       </c>
       <c r="J16" t="n">
-        <v>141.5392726595219</v>
+        <v>120.9611867706168</v>
       </c>
       <c r="K16" t="n">
-        <v>1991.739347056974</v>
+        <v>2116.022661115032</v>
       </c>
       <c r="L16" t="n">
-        <v>659.3353005617748</v>
+        <v>677.8999538734236</v>
       </c>
       <c r="M16" t="n">
-        <v>547.5114886610651</v>
+        <v>581.6962210304227</v>
       </c>
     </row>
   </sheetData>
